--- a/수도요금(최신버전).xlsx
+++ b/수도요금(최신버전).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\python_WATERTAX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F262367-4CBA-4087-8E7D-DE4D76229B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090E619-8425-450C-8719-BABA1330A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수도요금조사" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -603,6 +603,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1018,15 +1021,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="84.5" style="28" customWidth="1"/>
+    <col min="1" max="3" width="84.5" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="126.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="22"/>
@@ -1141,18 +1144,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="31" style="28" customWidth="1"/>
+    <col min="1" max="6" width="31" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="46.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1171,7 +1174,7 @@
         <f>D2*$D$14+$D$14*$D$4/9</f>
         <v>19097.460317460318</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="32">
         <f>ROUNDUP(E2,-2)</f>
         <v>19100</v>
       </c>
@@ -1193,7 +1196,7 @@
         <f>D3*$D$14+$D$14*$D$4/9</f>
         <v>36418.412698412692</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="32">
         <f>ROUNDUP(E3,-2)</f>
         <v>36500</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="32"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" ht="46.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -1225,7 +1228,7 @@
         <f t="shared" ref="E5:E11" si="0">D5*$D$14+$D$14*$D$4/9</f>
         <v>27091.746031746032</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="32">
         <f t="shared" ref="F5:F11" si="1">ROUNDUP(E5,-2)</f>
         <v>27100</v>
       </c>
@@ -1247,7 +1250,7 @@
         <f t="shared" si="0"/>
         <v>44412.698412698403</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="32">
         <f t="shared" si="1"/>
         <v>44500</v>
       </c>
@@ -1269,7 +1272,7 @@
         <f t="shared" si="0"/>
         <v>29756.507936507933</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="32">
         <f t="shared" si="1"/>
         <v>29800</v>
       </c>
@@ -1291,7 +1294,7 @@
         <f t="shared" si="0"/>
         <v>21762.222222222223</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="32">
         <f t="shared" si="1"/>
         <v>21800</v>
       </c>
@@ -1313,7 +1316,7 @@
         <f t="shared" si="0"/>
         <v>33753.650793650791</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="32">
         <f t="shared" si="1"/>
         <v>33800</v>
       </c>
@@ -1335,7 +1338,7 @@
         <f t="shared" si="0"/>
         <v>28424.126984126982</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="32">
         <f t="shared" si="1"/>
         <v>28500</v>
       </c>
@@ -1357,7 +1360,7 @@
         <f t="shared" si="0"/>
         <v>11103.174603174602</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="32">
         <f t="shared" si="1"/>
         <v>11200</v>
       </c>
@@ -1372,11 +1375,11 @@
         <f>SUM(D2:D11)</f>
         <v>189</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="34">
         <f>SUM(E2:E11)</f>
         <v>251820</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="32">
         <f>SUM(F2:F11)</f>
         <v>252300</v>
       </c>
@@ -1387,7 +1390,7 @@
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="35">
         <v>251820</v>
       </c>
       <c r="E13" s="1"/>
@@ -1407,30 +1410,30 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="36.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" ht="36.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1454,18 +1457,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="27" style="28" customWidth="1"/>
+    <col min="1" max="6" width="27" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="43.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1485,7 +1488,7 @@
         <f>D2*$D$14+$D$14*$D$4/9</f>
         <v>29772.280701754386</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="32">
         <f>ROUNDUP(E2,-2)</f>
         <v>29800</v>
       </c>
@@ -1508,7 +1511,7 @@
         <f>D3*$D$14+$D$14*$D$4/9</f>
         <v>39789.122807017542</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="32">
         <f>ROUNDUP(E3,-2)</f>
         <v>39800</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="32"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" ht="43.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -1541,7 +1544,7 @@
         <f t="shared" ref="E5:E11" si="1">D5*$D$14+$D$14*$D$4/9</f>
         <v>29772.280701754386</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="32">
         <f t="shared" ref="F5:F11" si="2">ROUNDUP(E5,-2)</f>
         <v>29800</v>
       </c>
@@ -1564,7 +1567,7 @@
         <f t="shared" si="1"/>
         <v>37284.912280701756</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="32">
         <f t="shared" si="2"/>
         <v>37300</v>
       </c>
@@ -1587,7 +1590,7 @@
         <f t="shared" si="1"/>
         <v>26015.964912280702</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="32">
         <f t="shared" si="2"/>
         <v>26100</v>
       </c>
@@ -1610,7 +1613,7 @@
         <f t="shared" si="1"/>
         <v>19755.438596491229</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="32">
         <f t="shared" si="2"/>
         <v>19800</v>
       </c>
@@ -1633,7 +1636,7 @@
         <f t="shared" si="1"/>
         <v>36032.807017543862</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="32">
         <f t="shared" si="2"/>
         <v>36100</v>
       </c>
@@ -1656,7 +1659,7 @@
         <f t="shared" si="1"/>
         <v>33528.596491228069</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="32">
         <f t="shared" si="2"/>
         <v>33600</v>
       </c>
@@ -1679,7 +1682,7 @@
         <f t="shared" si="1"/>
         <v>9738.5964912280706</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="32">
         <f t="shared" si="2"/>
         <v>9800</v>
       </c>
@@ -1694,11 +1697,11 @@
         <f>SUM(D2:D11)</f>
         <v>209</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="34">
         <f>SUM(E2:E11)</f>
         <v>261690</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="32">
         <f>SUM(F2:F11)</f>
         <v>262100</v>
       </c>
@@ -1709,7 +1712,7 @@
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="35">
         <v>261690</v>
       </c>
       <c r="E13" s="1"/>
@@ -1729,30 +1732,30 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1776,18 +1779,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="33" style="29" customWidth="1"/>
+    <col min="1" max="6" width="33" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="52.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1807,7 +1810,7 @@
         <f>D2*$D$14+$D$14*$D$4/9</f>
         <v>28296.855345911947</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="32">
         <f>ROUNDUP(E2,-2)</f>
         <v>28300</v>
       </c>
@@ -1830,7 +1833,7 @@
         <f>D3*$D$14+$D$14*$D$4/9</f>
         <v>49519.496855345911</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="32">
         <f>ROUNDUP(E3,-2)</f>
         <v>49600</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="52.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -1867,7 +1870,7 @@
         <f t="shared" ref="E5:E11" si="1">D5*$D$14+$D$14*$D$4/9</f>
         <v>29357.987421383645</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="32">
         <f t="shared" ref="F5:F11" si="2">ROUNDUP(E5,-2)</f>
         <v>29400</v>
       </c>
@@ -1890,7 +1893,7 @@
         <f t="shared" si="1"/>
         <v>38908.176100628931</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="32">
         <f t="shared" si="2"/>
         <v>39000</v>
       </c>
@@ -1913,7 +1916,7 @@
         <f t="shared" si="1"/>
         <v>29357.987421383645</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="32">
         <f t="shared" si="2"/>
         <v>29400</v>
       </c>
@@ -1936,7 +1939,7 @@
         <f t="shared" si="1"/>
         <v>27235.723270440249</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="32">
         <f t="shared" si="2"/>
         <v>27300</v>
       </c>
@@ -1959,7 +1962,7 @@
         <f t="shared" si="1"/>
         <v>34663.647798742139</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="32">
         <f t="shared" si="2"/>
         <v>34700</v>
       </c>
@@ -1982,7 +1985,7 @@
         <f t="shared" si="1"/>
         <v>32541.383647798739</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="32">
         <f t="shared" si="2"/>
         <v>32600</v>
       </c>
@@ -2005,7 +2008,7 @@
         <f t="shared" si="1"/>
         <v>11318.742138364778</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="32">
         <f t="shared" si="2"/>
         <v>11400</v>
       </c>
@@ -2020,11 +2023,11 @@
         <f>SUM(D2:D11)</f>
         <v>265</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="34">
         <f>SUM(E2:E11)</f>
         <v>281199.99999999994</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="32">
         <f>SUM(F2:F11)</f>
         <v>281700</v>
       </c>
@@ -2035,7 +2038,7 @@
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="35">
         <v>281200</v>
       </c>
       <c r="E13" s="1"/>
@@ -2055,30 +2058,30 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="46"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="48"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2104,18 +2107,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" thickTop="1" thickBottom="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="6" width="30.58203125" style="30" customWidth="1"/>
+    <col min="1" max="6" width="30.58203125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13" t="s">
@@ -2135,7 +2138,7 @@
         <f>D2*$D$14+$D$14*$D$4/9</f>
         <v>21208.792270531401</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="37">
         <f>ROUNDUP(E2,-2)</f>
         <v>21300</v>
       </c>
@@ -2158,7 +2161,7 @@
         <f>D3*$D$14+$D$14*$D$4/9</f>
         <v>55200.966183574878</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="37">
         <f>ROUNDUP(E3,-2)</f>
         <v>55300</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="13">
@@ -2195,7 +2198,7 @@
         <f t="shared" ref="E5:E11" si="1">D5*$D$14+$D$14*$D$4/9</f>
         <v>30360.531400966185</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="37">
         <f t="shared" ref="F5:F11" si="2">ROUNDUP(E5,-2)</f>
         <v>30400</v>
       </c>
@@ -2218,7 +2221,7 @@
         <f t="shared" si="1"/>
         <v>44741.835748792269</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="37">
         <f t="shared" si="2"/>
         <v>44800</v>
       </c>
@@ -2241,7 +2244,7 @@
         <f t="shared" si="1"/>
         <v>29053.140096618357</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="37">
         <f t="shared" si="2"/>
         <v>29100</v>
       </c>
@@ -2264,7 +2267,7 @@
         <f t="shared" si="1"/>
         <v>31667.922705314009</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="37">
         <f t="shared" si="2"/>
         <v>31700</v>
       </c>
@@ -2287,7 +2290,7 @@
         <f t="shared" si="1"/>
         <v>39512.270531400958</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="37">
         <f t="shared" si="2"/>
         <v>39600</v>
       </c>
@@ -2310,7 +2313,7 @@
         <f t="shared" si="1"/>
         <v>35590.096618357486</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="37">
         <f t="shared" si="2"/>
         <v>35600</v>
       </c>
@@ -2333,7 +2336,7 @@
         <f t="shared" si="1"/>
         <v>13364.444444444445</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="37">
         <f t="shared" si="2"/>
         <v>13400</v>
       </c>
@@ -2348,11 +2351,11 @@
         <f>SUM(D2:D11)</f>
         <v>230</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="39">
         <f>SUM(E2:E11)</f>
         <v>300699.99999999994</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="37">
         <f>SUM(F2:F11)</f>
         <v>301200</v>
       </c>
@@ -2363,7 +2366,7 @@
       <c r="C13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="40">
         <v>300700</v>
       </c>
       <c r="E13" s="20"/>
@@ -2383,30 +2386,30 @@
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6" ht="39.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2430,18 +2433,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="30.58203125" style="29" customWidth="1"/>
+    <col min="1" max="6" width="30.58203125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13" t="s">
@@ -2461,7 +2464,7 @@
         <f>D2*$D$14+$D$14*$D$4/9</f>
         <v>31528.14229249012</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="37">
         <f>ROUNDUP(E2,-2)</f>
         <v>31600</v>
       </c>
@@ -2484,7 +2487,7 @@
         <f>D3*$D$14+$D$14*$D$4/9</f>
         <v>61465.415019762841</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="37">
         <f>ROUNDUP(E3,-2)</f>
         <v>61500</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="13">
@@ -2521,7 +2524,7 @@
         <f t="shared" ref="E5:E11" si="1">D5*$D$14+$D$14*$D$4/9</f>
         <v>28924.901185770752</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="37">
         <f t="shared" ref="F5:F11" si="2">ROUNDUP(E5,-2)</f>
         <v>29000</v>
       </c>
@@ -2544,7 +2547,7 @@
         <f t="shared" si="1"/>
         <v>47147.58893280632</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="37">
         <f t="shared" si="2"/>
         <v>47200</v>
       </c>
@@ -2567,7 +2570,7 @@
         <f t="shared" si="1"/>
         <v>35433.003952569168</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="37">
         <f t="shared" si="2"/>
         <v>35500</v>
       </c>
@@ -2590,7 +2593,7 @@
         <f t="shared" si="1"/>
         <v>34131.383399209488</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="37">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
@@ -2613,7 +2616,7 @@
         <f t="shared" si="1"/>
         <v>38036.245059288536</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="37">
         <f t="shared" si="2"/>
         <v>38100</v>
       </c>
@@ -2636,7 +2639,7 @@
         <f t="shared" si="1"/>
         <v>40639.486166007904</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="37">
         <f t="shared" si="2"/>
         <v>40700</v>
       </c>
@@ -2659,7 +2662,7 @@
         <f t="shared" si="1"/>
         <v>12003.833992094862</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="37">
         <f t="shared" si="2"/>
         <v>12100</v>
       </c>
@@ -2674,11 +2677,11 @@
         <f>SUM(D2:D11)</f>
         <v>253</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="39">
         <f>SUM(E2:E11)</f>
         <v>329309.99999999988</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="37">
         <f>SUM(F2:F11)</f>
         <v>329900</v>
       </c>
@@ -2689,7 +2692,7 @@
       <c r="C13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="40">
         <v>329310</v>
       </c>
       <c r="E13" s="20"/>
@@ -2709,30 +2712,30 @@
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="60"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="62"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2750,26 +2753,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="30.58203125" style="28" customWidth="1"/>
-    <col min="7" max="18" width="8.6640625" style="28" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="28"/>
+    <col min="1" max="6" width="30.58203125" style="29" customWidth="1"/>
+    <col min="7" max="22" width="8.6640625" style="29" customWidth="1"/>
+    <col min="23" max="16384" width="8.6640625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13" t="s">
@@ -2787,9 +2790,9 @@
       </c>
       <c r="E2" s="14">
         <f>D2*$D$14+$D$14*$D$4/9</f>
-        <v>30258.874074074076</v>
-      </c>
-      <c r="F2" s="36">
+        <v>30264.254385964909</v>
+      </c>
+      <c r="F2" s="37">
         <f>ROUNDUP(E2,-2)</f>
         <v>30300</v>
       </c>
@@ -2810,11 +2813,11 @@
       </c>
       <c r="E3" s="14">
         <f>D3*$D$14+$D$14*$D$4/9</f>
-        <v>48659.540740740747</v>
-      </c>
-      <c r="F3" s="36">
+        <v>48422.807017543848</v>
+      </c>
+      <c r="F3" s="37">
         <f>ROUNDUP(E3,-2)</f>
-        <v>48700</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2823,11 +2826,12 @@
         <v>0</v>
       </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="15">
-        <v>33</v>
+      <c r="D4" s="28">
+        <f>MAX(D2:D3,D5:D11)</f>
+        <v>36</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="13">
@@ -2845,11 +2849,11 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" ref="E5:E11" si="1">D5*$D$14+$D$14*$D$4/9</f>
-        <v>25352.029629629633</v>
-      </c>
-      <c r="F5" s="36">
+        <v>25421.973684210523</v>
+      </c>
+      <c r="F5" s="37">
         <f t="shared" ref="F5:F11" si="2">ROUNDUP(E5,-2)</f>
-        <v>25400</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2868,11 +2872,11 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" si="1"/>
-        <v>37619.140740740746</v>
-      </c>
-      <c r="F6" s="36">
+        <v>37527.675438596489</v>
+      </c>
+      <c r="F6" s="37">
         <f t="shared" si="2"/>
-        <v>37700</v>
+        <v>37600</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2891,11 +2895,11 @@
       </c>
       <c r="E7" s="14">
         <f t="shared" si="1"/>
-        <v>26578.740740740745</v>
-      </c>
-      <c r="F7" s="36">
+        <v>26632.543859649119</v>
+      </c>
+      <c r="F7" s="37">
         <f t="shared" si="2"/>
-        <v>26600</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2914,9 +2918,9 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" si="1"/>
-        <v>29032.162962962968</v>
-      </c>
-      <c r="F8" s="36">
+        <v>29053.684210526313</v>
+      </c>
+      <c r="F8" s="37">
         <f t="shared" si="2"/>
         <v>29100</v>
       </c>
@@ -2937,9 +2941,9 @@
       </c>
       <c r="E9" s="14">
         <f t="shared" si="1"/>
-        <v>35165.718518518523</v>
-      </c>
-      <c r="F9" s="36">
+        <v>35106.535087719298</v>
+      </c>
+      <c r="F9" s="37">
         <f t="shared" si="2"/>
         <v>35200</v>
       </c>
@@ -2960,11 +2964,11 @@
       </c>
       <c r="E10" s="14">
         <f t="shared" si="1"/>
-        <v>32712.296296296299</v>
-      </c>
-      <c r="F10" s="36">
+        <v>32685.394736842103</v>
+      </c>
+      <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>32800</v>
+        <v>32700</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2983,11 +2987,11 @@
       </c>
       <c r="E11" s="14">
         <f t="shared" si="1"/>
-        <v>10631.496296296296</v>
-      </c>
-      <c r="F11" s="36">
+        <v>10895.131578947367</v>
+      </c>
+      <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>10700</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2998,13 +3002,13 @@
       </c>
       <c r="D12" s="19">
         <f>SUM(D2:D11)</f>
-        <v>225</v>
-      </c>
-      <c r="E12" s="38">
+        <v>228</v>
+      </c>
+      <c r="E12" s="39">
         <f>SUM(E2:E11)</f>
         <v>276010</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="37">
         <f>SUM(F2:F11)</f>
         <v>276500</v>
       </c>
@@ -3015,7 +3019,7 @@
       <c r="C13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="40">
         <v>276010</v>
       </c>
       <c r="E13" s="20"/>
@@ -3029,36 +3033,36 @@
       </c>
       <c r="D14" s="21">
         <f>D13/D12</f>
-        <v>1226.7111111111112</v>
+        <v>1210.5701754385964</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="60"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="62"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>

--- a/수도요금(최신버전).xlsx
+++ b/수도요금(최신버전).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\python_WATERTAX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090E619-8425-450C-8719-BABA1330A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F1D98-6816-4F59-ADDC-7ED40E750B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수도요금조사" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="8월 수도요금 공지" sheetId="5" r:id="rId5"/>
     <sheet name="9월 수도요금 공지" sheetId="6" r:id="rId6"/>
     <sheet name="10월 수도요금 공지" sheetId="7" r:id="rId7"/>
+    <sheet name="11월 수도요금 공지" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>※수도 계량기 확인하고 적어주세요!※
     25일 까지 적어주시기 바랍니다</t>
@@ -98,6 +99,36 @@
   </si>
   <si>
     <t>6월 상·하수도 요금   “ 말일까지 입금해주시기 바랍니다:)” 😀</t>
+  </si>
+  <si>
+    <t>4680</t>
+  </si>
+  <si>
+    <t>5924</t>
+  </si>
+  <si>
+    <t>2877</t>
+  </si>
+  <si>
+    <t>8280</t>
+  </si>
+  <si>
+    <t>5130</t>
+  </si>
+  <si>
+    <t>4320</t>
+  </si>
+  <si>
+    <t>4289</t>
+  </si>
+  <si>
+    <t>4874</t>
+  </si>
+  <si>
+    <t>3934</t>
+  </si>
+  <si>
+    <t>277310</t>
   </si>
 </sst>
 </file>
@@ -520,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -682,6 +713,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1016,7 +1050,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2753,15 +2787,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="6" width="30.58203125" style="29" customWidth="1"/>
-    <col min="7" max="22" width="8.6640625" style="29" customWidth="1"/>
-    <col min="23" max="16384" width="8.6640625" style="29"/>
+    <col min="7" max="24" width="8.6640625" style="29" customWidth="1"/>
+    <col min="25" max="16384" width="8.6640625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3074,4 +3108,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="30.58203125" style="29" customWidth="1"/>
+    <col min="7" max="24" width="8.6640625" style="29" customWidth="1"/>
+    <col min="25" max="16384" width="8.6640625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13">
+        <v>4662</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="13">
+        <f>C2-B2</f>
+        <v>18</v>
+      </c>
+      <c r="E2" s="14">
+        <f>D2*$D$14+$D$14*$D$4/9</f>
+        <v>28475.750394944705</v>
+      </c>
+      <c r="F2" s="37">
+        <f>ROUNDUP(E2,-2)</f>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13">
+        <v>5891</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="13">
+        <f>C3-B3</f>
+        <v>33</v>
+      </c>
+      <c r="E3" s="14">
+        <f>D3*$D$14+$D$14*$D$4/9</f>
+        <v>48189.731437598733</v>
+      </c>
+      <c r="F3" s="37">
+        <f>ROUNDUP(E3,-2)</f>
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="67">
+        <f>MAX(D2:D3,D5:D11)</f>
+        <v>33</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="13">
+        <v>102</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2862</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" ref="D5:D11" si="0">C5-B5</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" ref="E5:E11" si="1">D5*$D$14+$D$14*$D$4/9</f>
+        <v>24532.954186413903</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" ref="F5:F11" si="2">ROUNDUP(E5,-2)</f>
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="13">
+        <v>201</v>
+      </c>
+      <c r="B6" s="13">
+        <v>8255</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="1"/>
+        <v>37675.608214849919</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="2"/>
+        <v>37700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="13">
+        <v>202</v>
+      </c>
+      <c r="B7" s="13">
+        <v>5111</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="1"/>
+        <v>29790.015797788306</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" si="2"/>
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="13">
+        <v>301</v>
+      </c>
+      <c r="B8" s="13">
+        <v>4308</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="1"/>
+        <v>20590.157977883093</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="2"/>
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="13">
+        <v>302</v>
+      </c>
+      <c r="B9" s="13">
+        <v>4266</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="1"/>
+        <v>35047.077409162717</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="2"/>
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="13">
+        <v>401</v>
+      </c>
+      <c r="B10" s="13">
+        <v>4847</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="1"/>
+        <v>40304.139020537121</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="2"/>
+        <v>40400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="13">
+        <v>402</v>
+      </c>
+      <c r="B11" s="13">
+        <v>3928</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="1"/>
+        <v>12704.565560821484</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="2"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="19">
+        <f>SUM(D2:D11)</f>
+        <v>211</v>
+      </c>
+      <c r="E12" s="39">
+        <f>SUM(E2:E11)</f>
+        <v>277310</v>
+      </c>
+      <c r="F12" s="37">
+        <f>SUM(F2:F11)</f>
+        <v>277700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="21">
+        <f>D13/D12</f>
+        <v>1314.2654028436018</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="61"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="63"/>
+    </row>
+    <row r="17" spans="1:6" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F17"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>